--- a/similarities/split_global/harmonic_similarity_timestamps_307.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_307.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,750 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
+          <t>isophonics_59</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Eb/5', 'Ab', 'Eb/3', 'F:min']]</t>
+          <t>['G', 'C', 'G/3']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj', 'A:min/C']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:26.923922', '0:01:33.181700')]</t>
+          <t>('0:00:14.628775', '0:00:26.430680')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:16.920000', '0:00:25')]</t>
+          <t>('0:01:20.420000', '0:01:24.640000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=86.923922']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=14.628775</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>schubert-winterreise_109</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
+          <t>schubert-winterreise_152</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+          <t>('0:01:09.240000', '0:01:15.880000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:04.155032', '0:00:07.525011')]</t>
+          <t>('0:00:31.600000', '0:00:33.800000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=69.24</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-57#t=4.155032']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=31.6</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>isophonics_265</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_236</t>
+          <t>schubert-winterreise_90</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['D', 'A', 'D']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>['G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:02:22.380000', '0:02:25.800000')]</t>
+          <t>('0:01:42.174263', '0:01:51.798209')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:11.820000', '0:00:17.361000')]</t>
+          <t>('0:02:37.840000', '0:02:40.980000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=142.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=102.174263</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=11.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=157.84</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_15</t>
+          <t>isophonics_295</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'G', 'F'], ['C', 'F', 'C', 'G']]</t>
+          <t>['G', 'C/5', 'G', 'C/5']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'D:maj', 'C:maj'], ['G:maj', 'C:maj', 'G:maj', 'D:maj']]</t>
+          <t>['E', 'A/3', 'E/5', 'A/3']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:15.880793', '0:01:38.601519'), ('0:01:04.514625', '0:01:32.970680')]</t>
+          <t>('0:00:08.771904', '0:00:16.853782')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:31.672000', '0:00:37.551000'), ('0:00:15.014000', '0:00:24.195000')]</t>
+          <t>('0:00:47.176000', '0:00:54.592000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-15#t=75.880793', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-15#t=64.514625']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=8.771904</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=31.672', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=15.014']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=47.176</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_241</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_22</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D:min7', 'G:sus4', 'G', 'C']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C#:min7', 'F#:sus4', 'F#', 'B']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:38.821000', '0:01:46.710000')]</t>
+          <t>('0:00:41.380000', '0:00:43.340000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:03.849274', '0:00:06.020340')]</t>
+          <t>('0:01:24.620000', '0:01:31.740000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=98.821']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=41.38</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-22#t=3.849274']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=84.62</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_52</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['A#:7/F', 'D#/G', 'A#:7', 'D#']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['C:7', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:28.921995', '0:00:33.101587')]</t>
+          <t>('0:00:43.960000', '0:00:47.420000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:16.020000', '0:00:22.500000')]</t>
+          <t>('0:01:30.080000', '0:01:42')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-46#t=28.921995']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=43.96</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=16.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=90.08</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>isophonics_212</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['Ab', 'Db', 'Ab', 'Db']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['D', 'G', 'D', 'G']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:14.700000', '0:01:34.120000')]</t>
+          <t>('0:01:56.690000', '0:02:03.070000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:33.100000', '0:00:45.580000')]</t>
+          <t>('0:00:46.932280', '0:00:55.860352')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=74.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=33.1']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=46.93228</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
+          <t>isophonics_216</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G']]</t>
+          <t>['D', 'A', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:46.600000', '0:00:49.040000')]</t>
+          <t>('0:01:06.260000', '0:01:12.240000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:07.100430', '0:01:15.018435')]</t>
+          <t>('0:01:02.932448', '0:01:12.777709')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=46.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=66.26</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=67.10043']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=62.932448</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>schubert-winterreise_161</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:12.640000', '0:01:23.380000')]</t>
+          <t>('0:00:30.050000', '0:00:38.220000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:22.370000', '0:00:40.370000')]</t>
+          <t>('0:00:01.600000', '0:00:12.540000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=72.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=30.05</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=22.37']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=1.6</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>isophonics_61</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:02:11.200000', '0:02:16.340000')]</t>
+          <t>('0:01:14.500000', '0:01:20.420000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:41.380000', '0:00:43.340000')]</t>
+          <t>('0:00:24.387324', '0:00:27.452358')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=131.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=74.5</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=41.38']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=24.387324</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_79</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['A:min', 'D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+          <t>('0:00:00.500000', '0:00:07.720000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:16.020000', '0:00:22.500000')]</t>
+          <t>('0:00:13.660000', '0:00:31.860000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=0.5</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=16.02']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=13.66</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
+          <t>isophonics_276</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D/3', 'G', 'D']]</t>
+          <t>['G', 'E:min', 'A:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['Bb:maj', 'G:min', 'C:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:57.251357', '0:01:13.909779')]</t>
+          <t>('0:00:30.531803', '0:00:36.267131')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:02:07.600000', '0:02:12.400000')]</t>
+          <t>('0:00:49.160000', '0:01:07.802000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=57.251357']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-276#t=30.531803</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=127.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=49.16</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_87</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
+          <t>['C:maj', 'F:maj', 'C:maj/E']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:30.740000', '0:01:49.700000')]</t>
+          <t>('0:00:01.150000', '0:00:05.734000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:25', '0:00:35.520000')]</t>
+          <t>('0:01:09.860000', '0:01:13.740000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=90.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=1.15</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-87#t=25.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>schubert-winterreise_7</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>schubert-winterreise_139</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['F#:maj', 'C#:7/F', 'F#:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:58.400000', '0:01:08.120000')]</t>
+          <t>('0:00:32.980000', '0:00:35.260000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:04.520000', '0:01:06.820000')]</t>
+          <t>('0:00:34.380000', '0:00:38.520000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=58.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=32.98</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=64.52']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=34.38</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>jaah_25</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F', 'C:7', 'F'], ['F', 'Bb', 'F']]</t>
+          <t>['G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['Bb', 'Bb:7', 'Eb', 'Bb']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:00.590000', '0:00:16.750000'), ('0:01:02.530000', '0:01:09.910000')]</t>
+          <t>('0:00:51.800000', '0:01:01.460000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:58.320000', '0:00:59.680000'), ('0:00:56.720000', '0:00:58.880000')]</t>
+          <t>('0:00:31.370000', '0:00:43.560000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=0.59', 'https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=51.8</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.32', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=31.37</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
